--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09680FE7-70BE-4702-A282-97B30A5EB7B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3712122D-CD1B-4DEA-88A3-25D353D71E9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">动态规划!$A$2:$D$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$2:$D$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">哈希表!$A$2:$D$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">回溯!$A$2:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">回溯!$A$2:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">图!$A$2:$C$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">堆!$A$2:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$2:$D$79</definedName>
@@ -57,8 +57,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">栈!$A$2:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">树!$A$2:$D$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">深度优先!$A$2:$D$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">滑动窗口!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">贪心!$A$2:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">滑动窗口!$A$2:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">贪心!$A$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">递归!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$2:$C$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">队列!$A$2:$C$4</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="3466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7251" uniqueCount="3468">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10375,24 +10375,6 @@
     <t>递归-4题(Recursion)</t>
   </si>
   <si>
-    <t>图篇-9题(Graph, 12 problems)</t>
-  </si>
-  <si>
-    <t>深度优先遍历篇-55题(Depth-first Search, 69 problems)</t>
-  </si>
-  <si>
-    <t>树结构篇-67题(Tree, 82 problems)</t>
-  </si>
-  <si>
-    <t>贪心算法篇-24题(Greedy, 29 problems)</t>
-  </si>
-  <si>
-    <t>回溯篇-29题(Backtracking, 37 problems)</t>
-  </si>
-  <si>
-    <t>堆篇-18题(Heap, 20 problems)</t>
-  </si>
-  <si>
     <t>滑动窗口-6题(Sliding Window)</t>
   </si>
   <si>
@@ -10402,36 +10384,6 @@
     <t>队列-2题(Queue)</t>
   </si>
   <si>
-    <t>排序篇-17题(Sort, 23 problems)</t>
-  </si>
-  <si>
-    <t>动态规划篇-99题(Dynamic Programming, 110 problems)</t>
-  </si>
-  <si>
-    <t>哈希表篇-63题(Hash Table, 81 problems)</t>
-  </si>
-  <si>
-    <t>位操作篇-25题(Bit_Manipulation, 27 problems)</t>
-  </si>
-  <si>
-    <t>二分搜索篇-45题(Binary Search, 48 problems)</t>
-  </si>
-  <si>
-    <t>链表篇-28题(Linked List, 26 problems)</t>
-  </si>
-  <si>
-    <t>栈篇-30题(Stack, 33 problems)</t>
-  </si>
-  <si>
-    <t>双指针篇-37题(Two Pointers, 41 problems)</t>
-  </si>
-  <si>
-    <t>字符串篇-77题(String, 95 problems)</t>
-  </si>
-  <si>
-    <t>数组篇-122题(Array, 132 problems)</t>
-  </si>
-  <si>
     <t>2020.8.26</t>
   </si>
   <si>
@@ -10475,6 +10427,60 @@
   </si>
   <si>
     <t>2020.9.8</t>
+  </si>
+  <si>
+    <t>链表篇-26题(Linked List, 26 problems)</t>
+  </si>
+  <si>
+    <t>2020.9.9</t>
+  </si>
+  <si>
+    <t>图篇-8题(Graph, 8 problems)</t>
+  </si>
+  <si>
+    <t>深度优先遍历篇-55题(Depth-first Search, 55 problems)</t>
+  </si>
+  <si>
+    <t>树结构篇-67题(Tree, 67 problems)</t>
+  </si>
+  <si>
+    <t>贪心算法篇-24题(Greedy, 24 problems)</t>
+  </si>
+  <si>
+    <t>回溯篇-29题(Backtracking, 29problems)</t>
+  </si>
+  <si>
+    <t>堆篇-18题(Heap, 18 problems)</t>
+  </si>
+  <si>
+    <t>排序篇-17题(Sort, 17 problems)</t>
+  </si>
+  <si>
+    <t>动态规划篇-98题(Dynamic Programming, 98 problems)</t>
+  </si>
+  <si>
+    <t>哈希表篇-63题(Hash Table, 63 problems)</t>
+  </si>
+  <si>
+    <t>位操作篇-25题(Bit_Manipulation, 25 problems)</t>
+  </si>
+  <si>
+    <t>二分搜索篇-45题(Binary Search, 45 problems)</t>
+  </si>
+  <si>
+    <t>栈篇-30题(Stack, 30 problems)</t>
+  </si>
+  <si>
+    <t>双指针篇-37题(Two Pointers, 37 problems)</t>
+  </si>
+  <si>
+    <t>字符串篇-77题(String, 77 problems)</t>
+  </si>
+  <si>
+    <t>数组篇-118题(Array, 118 problems)</t>
+  </si>
+  <si>
+    <t>2020.9.10</t>
   </si>
 </sst>
 </file>
@@ -10686,7 +10692,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10822,6 +10828,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10834,8 +10848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -10844,7 +10856,47 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10949,7 +11001,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>332402</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>123561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10990,15 +11042,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27742</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542092</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11022,7 +11074,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="952500"/>
+          <a:off x="6705600" y="952500"/>
           <a:ext cx="6666667" cy="2438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11047,7 +11099,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>303964</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>37509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11139,14 +11191,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>94368</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11169,8 +11221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="2066925"/>
-          <a:ext cx="7057143" cy="1942857"/>
+          <a:off x="8315325" y="1390650"/>
+          <a:ext cx="7057143" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11194,7 +11246,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5180323</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11285,15 +11337,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>209209</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133681</xdr:rowOff>
+      <xdr:colOff>352084</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142214</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11316,7 +11368,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324259" y="1467181"/>
+          <a:off x="6467134" y="409906"/>
           <a:ext cx="2543516" cy="1285214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11341,8 +11393,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>208733</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171262</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11390,7 +11442,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>541924</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11488,8 +11540,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>379845</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28429</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11790,8 +11842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11804,17 +11856,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="F1" s="28" t="s">
         <v>3151</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -12330,7 +12382,9 @@
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>3467</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -12342,7 +12396,9 @@
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>3467</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -12584,7 +12640,9 @@
       <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>3451</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -12822,7 +12880,9 @@
       <c r="C79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>3451</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
@@ -12974,7 +13034,9 @@
       <c r="C91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>3451</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
@@ -13091,7 +13153,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13147,7 +13209,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3456</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13231,7 +13293,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3451</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13475,7 +13537,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3457</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13501,7 +13563,7 @@
         <v>7</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13515,7 +13577,7 @@
         <v>7</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>3455</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14331,7 +14393,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="45" t="s">
-        <v>3459</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14345,7 +14407,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="45" t="s">
-        <v>3459</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14359,7 +14421,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="45" t="s">
-        <v>3459</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14373,7 +14435,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="45" t="s">
-        <v>3459</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14539,7 +14601,7 @@
         <v>7</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>3453</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14581,7 +14643,7 @@
         <v>7</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>3453</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14658,7 +14720,9 @@
       <c r="C217" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="4" t="s">
+        <v>3467</v>
+      </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
@@ -14839,7 +14903,7 @@
         <v>7</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15729,7 +15793,7 @@
         <v>10</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>3451</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15841,7 +15905,7 @@
         <v>7</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>3460</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16109,7 +16173,7 @@
         <v>7</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>3461</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16173,7 +16237,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>3461</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16949,7 +17013,7 @@
         <v>7</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>3465</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17181,7 +17245,7 @@
         <v>7</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>3460</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17887,7 +17951,7 @@
         <v>7</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>3462</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18113,7 +18177,7 @@
         <v>7</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>3451</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18329,7 +18393,7 @@
         <v>7</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18397,7 +18461,7 @@
         <v>7</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>3458</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18423,7 +18487,7 @@
         <v>7</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>3458</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18597,7 +18661,7 @@
         <v>7</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>3460</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18831,7 +18895,7 @@
         <v>7</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>3462</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19207,7 +19271,7 @@
         <v>7</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19837,7 +19901,7 @@
         <v>7</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20027,7 +20091,7 @@
         <v>7</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>3452</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20337,7 +20401,7 @@
         <v>7</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="664" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20363,7 +20427,7 @@
         <v>10</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>3452</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="666" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20621,7 +20685,7 @@
         <v>7</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20635,7 +20699,7 @@
         <v>10</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20765,7 +20829,7 @@
         <v>7</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>3452</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="697" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20807,7 +20871,7 @@
         <v>7</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>3464</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21105,7 +21169,7 @@
         <v>7</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>3462</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="723" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21169,7 +21233,7 @@
         <v>10</v>
       </c>
       <c r="D727" s="4" t="s">
-        <v>3464</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="728" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21819,7 +21883,7 @@
         <v>7</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>3464</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="781" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21919,7 +21983,7 @@
         <v>7</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>3455</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="789" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22839,7 +22903,7 @@
         <v>7</v>
       </c>
       <c r="D864" s="3" t="s">
-        <v>3461</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="865" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24145,7 +24209,7 @@
         <v>7</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="973" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24351,7 +24415,7 @@
         <v>7</v>
       </c>
       <c r="D989" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="990" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24473,7 +24537,7 @@
         <v>7</v>
       </c>
       <c r="D999" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1000" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24597,7 +24661,7 @@
         <v>7</v>
       </c>
       <c r="D1009" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1010" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24941,7 +25005,7 @@
         <v>10</v>
       </c>
       <c r="D1037" s="4" t="s">
-        <v>3453</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1038" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27641,7 +27705,7 @@
         <v>7</v>
       </c>
       <c r="D1255" s="4" t="s">
-        <v>3463</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32729,7 +32793,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32741,13 +32805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3444</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32803,8 +32867,8 @@
       <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -33052,11 +33116,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58792F2-8C5B-4D50-BE98-1901DB34862F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33069,11 +33132,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33089,7 +33152,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>2226</v>
       </c>
@@ -33103,7 +33166,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2940</v>
       </c>
@@ -33114,7 +33177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>2676</v>
       </c>
@@ -33128,7 +33191,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>2238</v>
       </c>
@@ -33153,7 +33216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>2784</v>
       </c>
@@ -33167,7 +33230,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>2780</v>
       </c>
@@ -33181,7 +33244,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2260</v>
       </c>
@@ -33192,7 +33255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>2936</v>
       </c>
@@ -33206,7 +33269,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>2934</v>
       </c>
@@ -33220,7 +33283,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>2694</v>
       </c>
@@ -33234,7 +33297,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>2932</v>
       </c>
@@ -33270,7 +33333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2294</v>
       </c>
@@ -33292,7 +33355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>2930</v>
       </c>
@@ -33306,7 +33369,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2928</v>
       </c>
@@ -33317,7 +33380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2304</v>
       </c>
@@ -33328,7 +33391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>2926</v>
       </c>
@@ -33342,7 +33405,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>2616</v>
       </c>
@@ -33356,7 +33419,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>2708</v>
       </c>
@@ -33370,7 +33433,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>2924</v>
       </c>
@@ -33384,7 +33447,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>2922</v>
       </c>
@@ -33398,7 +33461,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>2920</v>
       </c>
@@ -33412,7 +33475,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>2807</v>
       </c>
@@ -33426,7 +33489,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2918</v>
       </c>
@@ -33437,7 +33500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>2756</v>
       </c>
@@ -33451,7 +33514,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>2916</v>
       </c>
@@ -33465,7 +33528,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>2845</v>
       </c>
@@ -33490,7 +33553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2912</v>
       </c>
@@ -33501,7 +33564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>2910</v>
       </c>
@@ -33515,7 +33578,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>2908</v>
       </c>
@@ -33529,7 +33592,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>2580</v>
       </c>
@@ -33554,7 +33617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>2366</v>
       </c>
@@ -33568,7 +33631,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>2904</v>
       </c>
@@ -33582,7 +33645,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>2902</v>
       </c>
@@ -33596,7 +33659,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>2372</v>
       </c>
@@ -33610,7 +33673,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2900</v>
       </c>
@@ -33621,7 +33684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>2684</v>
       </c>
@@ -33635,7 +33698,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>2898</v>
       </c>
@@ -33649,7 +33712,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>2896</v>
       </c>
@@ -33663,7 +33726,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>2894</v>
       </c>
@@ -33677,7 +33740,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2892</v>
       </c>
@@ -33688,7 +33751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>2890</v>
       </c>
@@ -33702,7 +33765,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2799</v>
       </c>
@@ -33713,7 +33776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>2888</v>
       </c>
@@ -33727,7 +33790,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>2886</v>
       </c>
@@ -33741,7 +33804,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2884</v>
       </c>
@@ -33752,7 +33815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>2882</v>
       </c>
@@ -33777,7 +33840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>2546</v>
       </c>
@@ -33791,7 +33854,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2793</v>
       </c>
@@ -33802,7 +33865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2878</v>
       </c>
@@ -33813,7 +33876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2876</v>
       </c>
@@ -33824,7 +33887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2788</v>
       </c>
@@ -33835,7 +33898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2874</v>
       </c>
@@ -33857,7 +33920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>2872</v>
       </c>
@@ -33871,7 +33934,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2530</v>
       </c>
@@ -33882,7 +33945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>2448</v>
       </c>
@@ -33897,10 +33960,2422 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D65" xr:uid="{F4EF7491-AD8D-4F28-9339-A58A5CBFFDA0}">
+  <autoFilter ref="A2:D65" xr:uid="{F4EF7491-AD8D-4F28-9339-A58A5CBFFDA0}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="29" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D100" xr:uid="{C22A04E8-DDF0-4AB9-8C2B-B411511D6271}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C19" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A59C3A-532E-49A6-A258-BE69DF77CF7C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C4" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206B427-A21F-46E1-B673-6E5B9EF2EC95}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C16" xr:uid="{97F6D353-F5AF-43BE-8B24-DF7AC309FA20}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033317-A5CE-477B-B520-81BBEBF5F5A8}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C8" xr:uid="{D50C29E4-BB6A-4553-9BC4-54253E585BFD}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="39.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C20" xr:uid="{2F11A29A-A71F-454C-BE27-1430819705A1}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C84F466-77E2-4908-AF55-5E68048F7951}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D31" xr:uid="{A9DEAB50-51DB-43E0-9ADE-B943BEF57E7A}">
     <filterColumn colId="2">
       <filters>
-        <filter val="困难"/>
+        <filter val="中等"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -33916,29 +36391,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEB519-3A6E-48A8-ADDA-BF63988ECB00}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33947,2680 +36421,294 @@
       <c r="B2" t="s">
         <v>2225</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="49" t="s">
         <v>3425</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2673</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>3426</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>3426</v>
+      <c r="A4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>3426</v>
+      <c r="A5" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>3011</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>3012</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>3426</v>
+      <c r="A6" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2660</v>
+        <v>2292</v>
       </c>
       <c r="B7" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2658</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="40" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>3426</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3000</v>
+        <v>3061</v>
       </c>
       <c r="B10" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C10" s="41" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>3015</v>
+        <v>3210</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>3016</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="40" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>2254</v>
+        <v>2839</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="40" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2262</v>
+        <v>2572</v>
       </c>
       <c r="B13" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2571</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3017</v>
+        <v>3212</v>
       </c>
       <c r="B14" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>3020</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2274</v>
+        <v>2748</v>
       </c>
       <c r="B16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2747</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3021</v>
+        <v>3214</v>
       </c>
       <c r="B17" t="s">
-        <v>3022</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>3215</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2870</v>
+        <v>3220</v>
       </c>
       <c r="B20" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>3221</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3025</v>
+        <v>2795</v>
       </c>
       <c r="B21" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2794</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3027</v>
+        <v>3113</v>
       </c>
       <c r="B22" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3114</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2640</v>
+        <v>2789</v>
       </c>
       <c r="B23" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3029</v>
+        <v>3427</v>
       </c>
       <c r="B24" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>3222</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2815</v>
+        <v>3225</v>
       </c>
       <c r="B26" t="s">
-        <v>2814</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3034</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2295</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>3040</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3042</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2622</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2621</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>2867</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2786</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2618</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3046</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2323</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2963</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2328</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2609</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3050</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>3056</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3058</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>3060</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2337</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3062</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3064</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>3067</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3074</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3076</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2842</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3080</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3086</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>3088</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>3426</v>
-      </c>
-      <c r="F69" s="47"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3090</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2573</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3092</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3094</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3096</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3098</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3100</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3102</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3104</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3106</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>3108</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3110</v>
-      </c>
-      <c r="C86" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3112</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3114</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3116</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3118</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3120</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
-        <v>3121</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>3122</v>
-      </c>
-      <c r="C92" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="40" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3126</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3128</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3130</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3132</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3134</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3136</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C100" s="39" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D100" xr:uid="{C22A04E8-DDF0-4AB9-8C2B-B411511D6271}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1255" sqref="I1255"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>2694</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2985</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2982</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2981</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>2979</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C19" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A59C3A-532E-49A6-A258-BE69DF77CF7C}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1255" sqref="I1255"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3440</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2786</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C4" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206B427-A21F-46E1-B673-6E5B9EF2EC95}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3439</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2810</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2995</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{97F6D353-F5AF-43BE-8B24-DF7AC309FA20}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033317-A5CE-477B-B520-81BBEBF5F5A8}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1255" sqref="I1255"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3438</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2677</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C2" xr:uid="{D50C29E4-BB6A-4553-9BC4-54253E585BFD}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1255" sqref="I1255"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="39.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>2814</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>2810</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>2808</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>2806</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>2805</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>2804</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>2802</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>2798</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>2792</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>2791</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C20" xr:uid="{2F11A29A-A71F-454C-BE27-1430819705A1}">
+  <autoFilter ref="A2:D26" xr:uid="{BA83E0B9-6E41-4A70-868B-840861DECA61}">
     <filterColumn colId="2">
       <filters>
         <filter val="中等"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C84F466-77E2-4908-AF55-5E68048F7951}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2672</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2671</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3183</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2664</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2662</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3191</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3193</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>2967</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2324</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2325</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2326</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2327</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3197</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3199</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3201</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2374</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2375</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3100</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>3203</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>3205</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3116</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2425</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C31" xr:uid="{C6B08E78-02E4-4401-92D1-38D0962837C7}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEB519-3A6E-48A8-ADDA-BF63988ECB00}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3209</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2776</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3062</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>3211</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3213</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2747</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3215</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3217</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3219</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3221</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3114</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B23" t="s">
-        <v>519</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3427</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3222</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3225</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C26" xr:uid="{780D2BFA-5224-43B4-84AE-DCCB93C36245}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -36648,12 +36736,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -38016,8 +38104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38028,11 +38116,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3434</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -39002,7 +39090,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39013,11 +39101,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -39809,7 +39897,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C3" sqref="C3:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39820,12 +39908,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3454</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40213,7 +40301,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I49">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -40235,11 +40323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>3431</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40311,7 +40399,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40321,11 +40409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3432</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40453,12 +40541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>1708</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -41395,10 +41483,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41412,25 +41500,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>3450</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="A1" s="56" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>2524</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -41474,7 +41562,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>2230</v>
       </c>
@@ -41516,7 +41604,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>2236</v>
       </c>
@@ -41544,7 +41632,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>2240</v>
       </c>
@@ -41558,7 +41646,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>2242</v>
       </c>
@@ -41600,37 +41688,46 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>2248</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>2249</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="D16" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>2250</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>2251</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>2252</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>2253</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -41694,7 +41791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2264</v>
       </c>
@@ -41819,7 +41916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>2284</v>
       </c>
@@ -41855,7 +41952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>2290</v>
       </c>
@@ -41891,7 +41988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>2296</v>
       </c>
@@ -42011,7 +42108,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>2314</v>
       </c>
@@ -42075,15 +42172,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
         <v>2324</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="27" t="s">
         <v>2325</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -42108,7 +42208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>2330</v>
       </c>
@@ -42211,17 +42311,20 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
         <v>2346</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="27" t="s">
         <v>2347</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="54"/>
+      <c r="D65" s="40" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F65" s="51"/>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -42236,8 +42339,8 @@
       <c r="D66" s="40" t="s">
         <v>3426</v>
       </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -42253,7 +42356,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>2352</v>
       </c>
@@ -42306,7 +42409,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>2360</v>
       </c>
@@ -42334,7 +42437,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>2364</v>
       </c>
@@ -42398,15 +42501,18 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
         <v>2374</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="27" t="s">
         <v>2375</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -42419,7 +42525,7 @@
       <c r="C80" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="53"/>
+      <c r="E80" s="50"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
@@ -42457,7 +42563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>2384</v>
       </c>
@@ -42496,7 +42602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>2390</v>
       </c>
@@ -42815,7 +42921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>2442</v>
       </c>
@@ -42826,7 +42932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
         <v>2444</v>
       </c>
@@ -42840,7 +42946,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
         <v>2446</v>
       </c>
@@ -42854,7 +42960,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>2448</v>
       </c>
@@ -42868,7 +42974,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>2450</v>
       </c>
@@ -42879,7 +42985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>2452</v>
       </c>
@@ -42890,7 +42996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>2454</v>
       </c>
@@ -42901,7 +43007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>2456</v>
       </c>
@@ -42912,7 +43018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
         <v>2458</v>
       </c>
@@ -42926,7 +43032,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>2460</v>
       </c>
@@ -42939,6 +43045,123 @@
       <c r="D122" s="40" t="s">
         <v>3426</v>
       </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="36"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="36"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="36"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="36"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="36"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="36"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="36"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="36"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="36"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="36"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="36"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="36"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="36"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="36"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="36"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="36"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="36"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="36"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="36"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="36"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="36"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="36"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="36"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="36"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="36"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="36"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="36"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="36"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="36"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="36"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="36"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="36"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="36"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="36"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:D122" xr:uid="{6681827B-EC1C-4F7B-AADF-741A968FE5B4}">
@@ -42946,6 +43169,9 @@
       <filters>
         <filter val="中等"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="3">
@@ -42954,7 +43180,13 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124:G162">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42968,7 +43200,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C76"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42981,11 +43213,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -43029,7 +43261,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2672</v>
       </c>
@@ -43040,7 +43272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2670</v>
       </c>
@@ -43079,7 +43311,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2664</v>
       </c>
@@ -43090,7 +43322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2662</v>
       </c>
@@ -43179,7 +43411,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2648</v>
       </c>
@@ -43190,7 +43422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2646</v>
       </c>
@@ -43337,7 +43569,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2622</v>
       </c>
@@ -43387,7 +43619,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2614</v>
       </c>
@@ -43398,7 +43630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2612</v>
       </c>
@@ -43434,7 +43666,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2606</v>
       </c>
@@ -43445,7 +43677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2604</v>
       </c>
@@ -43484,7 +43716,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2598</v>
       </c>
@@ -43545,7 +43777,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2588</v>
       </c>
@@ -43598,7 +43830,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>2580</v>
       </c>
@@ -43612,7 +43844,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2578</v>
       </c>
@@ -43623,8 +43855,8 @@
         <v>7</v>
       </c>
       <c r="D52" s="47"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -43704,7 +43936,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2564</v>
       </c>
@@ -43715,7 +43947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2562</v>
       </c>
@@ -43726,18 +43958,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
         <v>2560</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="22" t="s">
         <v>2559</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2558</v>
       </c>
@@ -43784,7 +44019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2550</v>
       </c>
@@ -43795,7 +44030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2548</v>
       </c>
@@ -43820,7 +44055,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2544</v>
       </c>
@@ -43842,7 +44077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2542</v>
       </c>
@@ -43892,7 +44127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2534</v>
       </c>
@@ -43914,7 +44149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2530</v>
       </c>
@@ -43925,7 +44160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2528</v>
       </c>
@@ -43936,7 +44171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2526</v>
       </c>
@@ -43949,17 +44184,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:D79" xr:uid="{C494DBF6-84B4-4393-8FAC-7B498D784D9F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
+    <filterColumn colId="3">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C80:C1048576 B2:B79 C1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -43972,7 +44205,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1255" sqref="I1255"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43985,11 +44218,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3448</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44486,11 +44719,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1850CE06-8D22-4A2D-B248-33547EF5D1DE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44503,13 +44735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3447</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44553,7 +44785,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>2784</v>
       </c>
@@ -44567,7 +44799,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>2656</v>
       </c>
@@ -44581,7 +44813,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>2782</v>
       </c>
@@ -44595,7 +44827,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>2780</v>
       </c>
@@ -44609,7 +44841,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>2778</v>
       </c>
@@ -44634,7 +44866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>2774</v>
       </c>
@@ -44648,7 +44880,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>2772</v>
       </c>
@@ -44673,7 +44905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>2768</v>
       </c>
@@ -44687,7 +44919,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>2766</v>
       </c>
@@ -44715,7 +44947,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2606</v>
       </c>
@@ -44726,7 +44958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2604</v>
       </c>
@@ -44751,7 +44983,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>2762</v>
       </c>
@@ -44765,7 +44997,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>2760</v>
       </c>
@@ -44779,7 +45011,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2758</v>
       </c>
@@ -44804,7 +45036,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>2754</v>
       </c>
@@ -44818,7 +45050,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2752</v>
       </c>
@@ -44829,7 +45061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2750</v>
       </c>
@@ -44840,7 +45072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2748</v>
       </c>
@@ -44851,7 +45083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2746</v>
       </c>
@@ -44862,7 +45094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2744</v>
       </c>
@@ -44884,7 +45116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>2742</v>
       </c>
@@ -44898,7 +45130,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2740</v>
       </c>
@@ -44910,13 +45142,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D32" xr:uid="{146F4F3C-E34D-4A35-9F77-35BB6AB77243}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D32" xr:uid="{146F4F3C-E34D-4A35-9F77-35BB6AB77243}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
@@ -44929,11 +45155,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA42A26C-92F2-4785-B7A8-FAA923D5B92C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44945,11 +45170,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3446</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44964,7 +45189,7 @@
       <c r="E2" s="34"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>2738</v>
       </c>
@@ -44977,7 +45202,7 @@
       <c r="E3" s="34"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>2736</v>
       </c>
@@ -44990,7 +45215,7 @@
       <c r="E4" s="34"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>2734</v>
       </c>
@@ -45003,7 +45228,7 @@
       <c r="E5" s="34"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>2732</v>
       </c>
@@ -45029,7 +45254,7 @@
       <c r="E7" s="34"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2728</v>
       </c>
@@ -45042,7 +45267,7 @@
       <c r="E8" s="34"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2726</v>
       </c>
@@ -45068,7 +45293,7 @@
       <c r="E10" s="34"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2698</v>
       </c>
@@ -45081,7 +45306,7 @@
       <c r="E11" s="34"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>2722</v>
       </c>
@@ -45094,7 +45319,7 @@
       <c r="E12" s="34"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2720</v>
       </c>
@@ -45107,7 +45332,7 @@
       <c r="E13" s="34"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>2696</v>
       </c>
@@ -45120,7 +45345,7 @@
       <c r="E14" s="34"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>2718</v>
       </c>
@@ -45133,7 +45358,7 @@
       <c r="E15" s="34"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2716</v>
       </c>
@@ -45146,7 +45371,7 @@
       <c r="E16" s="34"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>2714</v>
       </c>
@@ -45159,7 +45384,7 @@
       <c r="E17" s="34"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>2692</v>
       </c>
@@ -45172,7 +45397,7 @@
       <c r="E18" s="34"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2712</v>
       </c>
@@ -45185,7 +45410,7 @@
       <c r="E19" s="34"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>2710</v>
       </c>
@@ -45198,7 +45423,7 @@
       <c r="E20" s="34"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>2690</v>
       </c>
@@ -45211,7 +45436,7 @@
       <c r="E21" s="34"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>2708</v>
       </c>
@@ -45224,7 +45449,7 @@
       <c r="E22" s="34"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2706</v>
       </c>
@@ -45237,7 +45462,7 @@
       <c r="E23" s="34"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>2688</v>
       </c>
@@ -45250,7 +45475,7 @@
       <c r="E24" s="34"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>2704</v>
       </c>
@@ -45263,7 +45488,7 @@
       <c r="E25" s="34"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>2686</v>
       </c>
@@ -45276,7 +45501,7 @@
       <c r="E26" s="34"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>2702</v>
       </c>
@@ -45289,7 +45514,7 @@
       <c r="E27" s="34"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2700</v>
       </c>
@@ -45303,13 +45528,7 @@
       <c r="F28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C28" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C28" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -45321,11 +45540,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763AD0AA-3B57-42E5-A446-1C59E0C93422}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45338,11 +45556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="54" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -45372,7 +45590,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>2694</v>
       </c>
@@ -45386,7 +45604,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>2270</v>
       </c>
@@ -45400,7 +45618,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>2290</v>
       </c>
@@ -45414,7 +45632,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2870</v>
       </c>
@@ -45425,7 +45643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2294</v>
       </c>
@@ -45436,7 +45654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>2314</v>
       </c>
@@ -45497,7 +45715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2862</v>
       </c>
@@ -45508,7 +45726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>2860</v>
       </c>
@@ -45522,7 +45740,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>2859</v>
       </c>
@@ -45547,7 +45765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>2855</v>
       </c>
@@ -45561,7 +45779,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>2338</v>
       </c>
@@ -45575,7 +45793,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2805</v>
       </c>
@@ -45586,7 +45804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>2853</v>
       </c>
@@ -45600,7 +45818,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>2352</v>
       </c>
@@ -45636,7 +45854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>2847</v>
       </c>
@@ -45650,7 +45868,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>2845</v>
       </c>
@@ -45664,7 +45882,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>2360</v>
       </c>
@@ -45689,7 +45907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>2364</v>
       </c>
@@ -45714,7 +45932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>2839</v>
       </c>
@@ -45728,7 +45946,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2837</v>
       </c>
@@ -45739,7 +45957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>2684</v>
       </c>
@@ -45753,7 +45971,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2378</v>
       </c>
@@ -45764,7 +45982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>2384</v>
       </c>
@@ -45778,7 +45996,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>2835</v>
       </c>
@@ -45803,7 +46021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>2831</v>
       </c>
@@ -45817,7 +46035,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>2829</v>
       </c>
@@ -45831,7 +46049,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>2827</v>
       </c>
@@ -45859,7 +46077,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2422</v>
       </c>
@@ -45870,7 +46088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>2825</v>
       </c>
@@ -45898,7 +46116,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>2823</v>
       </c>
@@ -45912,7 +46130,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2821</v>
       </c>
@@ -45935,13 +46153,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D47" xr:uid="{25EA5FDD-2BA5-4613-B6D7-18B96D95CF1B}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="困难"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D47" xr:uid="{25EA5FDD-2BA5-4613-B6D7-18B96D95CF1B}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B8CC4-84F3-4B05-844C-0A601E69913C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03827FA2-3219-4DC8-847C-EC320044C98D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15150" yWindow="720" windowWidth="16380" windowHeight="14295" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="二分搜索" sheetId="14" r:id="rId9"/>
     <sheet name="位操作" sheetId="16" r:id="rId10"/>
     <sheet name="哈希表" sheetId="15" r:id="rId11"/>
-    <sheet name="排序" sheetId="17" r:id="rId12"/>
-    <sheet name="分治" sheetId="20" r:id="rId13"/>
-    <sheet name="滑动窗口" sheetId="19" r:id="rId14"/>
+    <sheet name="分治" sheetId="20" r:id="rId12"/>
+    <sheet name="滑动窗口" sheetId="19" r:id="rId13"/>
+    <sheet name="排序" sheetId="17" r:id="rId14"/>
     <sheet name="堆" sheetId="13" r:id="rId15"/>
     <sheet name="回溯" sheetId="22" r:id="rId16"/>
     <sheet name="贪心" sheetId="23" r:id="rId17"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$1512</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">二分搜索!$A$2:$D$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">位操作!$A$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">分治!$A$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">分治!$A$2:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">剑指Offer!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">动态规划!$A$2:$D$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$2:$D$38</definedName>
@@ -52,12 +52,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">堆!$A$2:$D$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$2:$D$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">广度优先!$A$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">排序!$A$2:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">排序!$A$2:$C$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$D$122</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">栈!$A$2:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">树!$A$2:$D$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">深度优先!$A$2:$D$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">滑动窗口!$A$2:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">滑动窗口!$A$2:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">贪心!$A$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">递归!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$2:$D$28</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="3474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="3475">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10499,6 +10499,9 @@
   </si>
   <si>
     <t>2020.9.16(self)</t>
+  </si>
+  <si>
+    <t>2020.9.17</t>
   </si>
 </sst>
 </file>
@@ -10710,7 +10713,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10859,6 +10862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11852,8 +11858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="D339" sqref="D339"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="D568" sqref="D568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11866,17 +11872,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="F1" s="28" t="s">
         <v>3151</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -14750,7 +14756,9 @@
       <c r="C216" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
@@ -15094,7 +15102,9 @@
       <c r="C242" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
@@ -17384,7 +17394,9 @@
       <c r="C425" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D425" s="4"/>
+      <c r="D425" s="4" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="426" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="10" t="s">
@@ -18796,7 +18808,9 @@
       <c r="C536" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D536" s="3"/>
+      <c r="D536" s="3" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="537" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="10" t="s">
@@ -19206,7 +19220,9 @@
       <c r="C568" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D568" s="3"/>
+      <c r="D568" s="3" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="569" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="10" t="s">
@@ -32871,13 +32887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3461</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32948,8 +32964,8 @@
       <c r="D6" s="53" t="s">
         <v>3426</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -33255,7 +33271,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33268,11 +33284,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3460</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33303,14 +33319,17 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="29" t="s">
         <v>2940</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="29" t="s">
         <v>2939</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -34122,12 +34141,339 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206B427-A21F-46E1-B673-6E5B9EF2EC95}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C16" xr:uid="{97F6D353-F5AF-43BE-8B24-DF7AC309FA20}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033317-A5CE-477B-B520-81BBEBF5F5A8}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C8" xr:uid="{D50C29E4-BB6A-4553-9BC4-54253E585BFD}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34138,11 +34484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3458</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -34376,324 +34722,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206B427-A21F-46E1-B673-6E5B9EF2EC95}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2810</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2995</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C16" xr:uid="{97F6D353-F5AF-43BE-8B24-DF7AC309FA20}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="中等"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033317-A5CE-477B-B520-81BBEBF5F5A8}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>3432</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2677</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:C8" xr:uid="{D50C29E4-BB6A-4553-9BC4-54253E585BFD}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34705,11 +34740,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>3457</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -34770,14 +34805,17 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="27" t="s">
         <v>2811</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="27" t="s">
         <v>2810</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -34951,7 +34989,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34962,11 +35000,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3456</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -35356,7 +35394,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -35368,11 +35406,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3455</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -35686,7 +35724,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -35699,11 +35737,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3459</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36895,11 +36933,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3434</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36962,12 +37000,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -38342,11 +38380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3453</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -39149,12 +39187,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3438</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -39565,11 +39603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3454</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40549,11 +40587,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3431</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40635,11 +40673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3452</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40767,12 +40805,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>1708</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -41711,7 +41749,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -41726,25 +41764,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>3466</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>2524</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -43449,7 +43487,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43462,11 +43500,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3465</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44488,7 +44526,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44501,11 +44539,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3464</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44925,6 +44963,9 @@
       <c r="C32" s="39" t="s">
         <v>7</v>
       </c>
+      <c r="D32" s="44" t="s">
+        <v>3426</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -44993,6 +45034,9 @@
       </c>
       <c r="C38" s="39" t="s">
         <v>7</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>3426</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -45034,13 +45078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3463</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -45486,11 +45530,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3450</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -45936,11 +45980,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>3462</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
